--- a/DOC/开发计划/DMS开发计划-3月.xlsx
+++ b/DOC/开发计划/DMS开发计划-3月.xlsx
@@ -10,14 +10,14 @@
     <sheet name="3月开发计划" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3月开发计划'!$A$1:$XDT$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3月开发计划'!$A$1:$XDT$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>功能模块</t>
   </si>
@@ -220,14 +220,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>指标的设置，通话次数，通话时长</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>去掉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>后台产品定义功能开发</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -309,6 +301,18 @@
   </si>
   <si>
     <t>实施</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统LOGO管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGO，系统名称，主题颜色管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页按品牌分二级域名访问</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -823,10 +827,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:XDT50"/>
+  <dimension ref="A1:XDT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -872,7 +876,7 @@
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6">
         <v>43525</v>
@@ -888,7 +892,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="6">
         <v>43525</v>
@@ -904,7 +908,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6">
         <v>43528</v>
@@ -920,7 +924,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="6">
         <v>43528</v>
@@ -938,10 +942,10 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="6">
-        <v>43528</v>
+        <v>43530</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -954,10 +958,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="6">
-        <v>43528</v>
+        <v>43531</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -966,13 +970,17 @@
     <row r="8" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43532</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="1"/>
@@ -980,11 +988,9 @@
     <row r="9" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
         <v>64</v>
       </c>
@@ -998,14 +1004,14 @@
     <row r="10" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="6">
-        <v>43529</v>
+        <v>43530</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1014,14 +1020,16 @@
     <row r="11" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="6">
-        <v>43530</v>
+        <v>43531</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1030,16 +1038,14 @@
     <row r="12" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E12" s="6">
-        <v>43530</v>
+        <v>43532</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1048,48 +1054,48 @@
     <row r="13" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="6">
-        <v>43531</v>
+        <v>43532</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="13"/>
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="6">
-        <v>43531</v>
+        <v>43536</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="13"/>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15" s="6">
-        <v>43536</v>
+        <v>43537</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1098,11 +1104,11 @@
     <row r="16" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="6">
         <v>43537</v>
@@ -1114,14 +1120,14 @@
     <row r="17" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="6">
-        <v>43537</v>
+        <v>43539</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1130,48 +1136,48 @@
     <row r="18" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="6">
-        <v>43539</v>
+        <v>43537</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E19" s="6">
-        <v>43537</v>
+        <v>43528</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A20" s="10"/>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="6">
-        <v>43528</v>
+        <v>43529</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
@@ -1180,64 +1186,64 @@
     <row r="21" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E21" s="6">
-        <v>43529</v>
+        <v>43530</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="6">
-        <v>43530</v>
+        <v>43531</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="11"/>
+      <c r="A23" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="6">
-        <v>43531</v>
+        <v>43528</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="10"/>
       <c r="B24" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" s="6">
-        <v>43528</v>
+        <v>43529</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1246,14 +1252,14 @@
     <row r="25" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="6">
-        <v>43529</v>
+        <v>43530</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1262,14 +1268,14 @@
     <row r="26" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="6">
-        <v>43530</v>
+        <v>43531</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1278,14 +1284,14 @@
     <row r="27" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E27" s="6">
-        <v>43531</v>
+        <v>43532</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -1294,11 +1300,11 @@
     <row r="28" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E28" s="6">
         <v>43532</v>
@@ -1310,11 +1316,11 @@
     <row r="29" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" s="6">
         <v>43532</v>
@@ -1324,31 +1330,31 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E30" s="6">
-        <v>43532</v>
+        <v>43525</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A31" s="10"/>
       <c r="B31" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="6">
         <v>43525</v>
@@ -1360,11 +1366,11 @@
     <row r="32" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32" s="6">
         <v>43525</v>
@@ -1376,11 +1382,11 @@
     <row r="33" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="6">
         <v>43525</v>
@@ -1392,11 +1398,11 @@
     <row r="34" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" s="6">
         <v>43525</v>
@@ -1406,50 +1412,50 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="10"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="5" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E35" s="6">
-        <v>43525</v>
+        <v>43554</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="11"/>
+      <c r="A36" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="B36" s="5" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E36" s="6">
-        <v>43554</v>
+        <v>43549</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A37" s="10"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E37" s="6">
-        <v>43549</v>
+        <v>43550</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1458,14 +1464,14 @@
     <row r="38" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38" s="6">
-        <v>43550</v>
+        <v>43551</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1474,11 +1480,11 @@
     <row r="39" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39" s="6">
         <v>43551</v>
@@ -1490,14 +1496,14 @@
     <row r="40" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E40" s="6">
-        <v>43551</v>
+        <v>43552</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -1506,14 +1512,14 @@
     <row r="41" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E41" s="6">
-        <v>43552</v>
+        <v>43553</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -1522,11 +1528,11 @@
     <row r="42" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E42" s="6">
         <v>43553</v>
@@ -1535,34 +1541,34 @@
       <c r="G42" s="7"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:8" s="8" customFormat="1" ht="36">
+      <c r="A43" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="B43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D43" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E43" s="6">
-        <v>43553</v>
+        <v>43542</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" s="8" customFormat="1" ht="36">
-      <c r="A44" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A44" s="10"/>
       <c r="B44" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" s="6">
         <v>43542</v>
@@ -1571,35 +1577,35 @@
       <c r="G44" s="7"/>
       <c r="H44" s="12"/>
     </row>
-    <row r="45" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+    <row r="45" spans="1:8" s="8" customFormat="1" ht="36">
       <c r="A45" s="10"/>
       <c r="B45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="E45" s="6">
-        <v>43542</v>
+        <v>43543</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="12"/>
     </row>
-    <row r="46" spans="1:8" s="8" customFormat="1" ht="36">
+    <row r="46" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="10"/>
       <c r="B46" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" s="6">
-        <v>43542</v>
+        <v>43544</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -1608,14 +1614,14 @@
     <row r="47" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" s="6">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -1626,12 +1632,14 @@
       <c r="B48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="D48" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E48" s="6">
-        <v>43544</v>
+        <v>43545</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -1640,49 +1648,65 @@
     <row r="49" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A49" s="10"/>
       <c r="B49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>59</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="6">
-        <v>43544</v>
+        <v>43546</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A50" s="11"/>
+      <c r="A50" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="B50" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E50" s="6">
-        <v>43546</v>
+        <v>43550</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="12"/>
     </row>
+    <row r="51" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A51" s="13"/>
+      <c r="B51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="6">
+        <v>43552</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:XDT50"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="H44:H50"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="H43:H51"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A50:A51"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/DOC/开发计划/DMS开发计划-3月.xlsx
+++ b/DOC/开发计划/DMS开发计划-3月.xlsx
@@ -485,13 +485,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -829,8 +829,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -934,7 +934,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -952,7 +952,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
@@ -986,7 +986,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="5" t="s">
         <v>68</v>
       </c>
@@ -1002,7 +1002,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1036,7 +1036,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1068,7 +1068,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1086,7 +1086,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
         <v>27</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="11"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="11"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="5" t="s">
         <v>72</v>
       </c>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="12"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A44" s="10"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="12"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" s="8" customFormat="1" ht="36">
       <c r="A45" s="10"/>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="12"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="10"/>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="12"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A47" s="10"/>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="12"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A48" s="10"/>
@@ -1643,7 +1643,7 @@
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="12"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A49" s="10"/>
@@ -1659,10 +1659,10 @@
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="12"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -1677,10 +1677,10 @@
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="12"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A51" s="13"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="5" t="s">
         <v>75</v>
       </c>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="12"/>
+      <c r="H51" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/DOC/开发计划/DMS开发计划-3月.xlsx
+++ b/DOC/开发计划/DMS开发计划-3月.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="3月开发计划" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3月开发计划'!$A$1:$XDT$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3月开发计划'!$A$1:$XDT$60</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
   <si>
     <t>功能模块</t>
   </si>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>登录页按品牌分二级域名访问</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形化项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维保大数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务应用场景</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,6 +504,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -827,10 +842,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:XDT51"/>
+  <dimension ref="A1:XDT81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1695,8 +1710,325 @@
       <c r="G51" s="7"/>
       <c r="H51" s="11"/>
     </row>
+    <row r="52" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A53" s="10"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A54" s="13"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A56" s="10"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A57" s="13"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A59" s="10"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A60" s="13"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="69" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A69" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="6">
+        <v>43530</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A70" s="12"/>
+      <c r="B70" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="6">
+        <v>43531</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A71" s="12"/>
+      <c r="B71" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="6">
+        <v>43532</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A72" s="12"/>
+      <c r="B72" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="6">
+        <v>43529</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A73" s="12"/>
+      <c r="B73" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="6">
+        <v>43530</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A74" s="12"/>
+      <c r="B74" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="6">
+        <v>43531</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A75" s="12"/>
+      <c r="B75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="6">
+        <v>43532</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A76" s="12"/>
+      <c r="B76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="6">
+        <v>43532</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A77" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="6">
+        <v>43536</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A78" s="12"/>
+      <c r="B78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="6">
+        <v>43537</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A79" s="12"/>
+      <c r="B79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="6">
+        <v>43537</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A80" s="12"/>
+      <c r="B80" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="6">
+        <v>43539</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A81" s="12"/>
+      <c r="B81" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="6">
+        <v>43537</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A60"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="H43:H51"/>
     <mergeCell ref="A14:A18"/>

--- a/DOC/开发计划/DMS开发计划-3月.xlsx
+++ b/DOC/开发计划/DMS开发计划-3月.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="3月开发计划" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3月开发计划'!$A$1:$XDT$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3月开发计划'!$A$1:$XDT$63</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
   <si>
     <t>功能模块</t>
   </si>
@@ -40,27 +40,311 @@
     <t>状态</t>
   </si>
   <si>
+    <t>登录接口测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时推送维修数据接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询需要推送电子档案的公司结算单数据接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台账号配置相关接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云呼叫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI电话机器人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户级别维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信平台、微信营销</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速箱专修模块（系统）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资料，车辆资料管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料分配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通话记录，话单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码及网关的购买，网关配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫功能实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫任务管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通结果的管理（意向管理，黑名单管理）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人的服务申请，续费；购买通道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>话术的购买，配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨打结果的统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>话术配置，话术分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户级别维护功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户积分功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户积分查询功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务模块发送微信消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务模块发送微信图文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务模块发送卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户群发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录问题处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据车牌号获取车险到期的时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价功能实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保功能实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开单功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂内翻新功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件和故障现象登记功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口输出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户订单管理功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品销售统计功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前设定产品：手机APP，业务财务一体化，EPC云服务，微信车主端，透明车间，云呼叫，AI电话机器人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品权限根据客户购买的产品判断是否可维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册认证后，会有一个默认用户数量；使用系统后可以重新申请用户数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志安</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊鹰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁升启</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人拨打电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户开通功能申请，续费；购买通道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信后台界面开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动派券功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动派券功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGO，系统名称，主题颜色管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页按品牌分二级域名访问</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>各省市地区电子档案对接上传</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>登录接口测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时推送维修数据接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询需要推送电子档案的公司结算单数据接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台账号配置相关接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>云呼叫</t>
+    <t>3D模型界面添加到车道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D模型接口与维保项目组对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D模型中配件选择后添加到对应项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准项目分类接口对接维保大数据接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>热词接口对接维保大数据接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准套餐接口对接维保大数据接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准项目接口对接维保大数据接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维保大数据其它相关接口对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置中心搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册中心搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件库存接口尝试微服务化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户开通功能申请，续费；购买通道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码及网关的购买，网关配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫功能实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息的客户级别维护功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波箱相关报表功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速箱注册认证功能开发</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -68,11 +352,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户级别维护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信平台、微信营销</t>
+    <t>维保大数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品续费、开通权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务应用场景</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -80,35 +368,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>变速箱专修模块（系统）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户资料，车辆资料管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料分配</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通话记录，话单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码及网关的购买，网关配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫功能实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫任务管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沟通结果的管理（意向管理，黑名单管理）</t>
+    <t>系统LOGO管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形化项目</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -120,103 +384,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>拨打结果的统计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>话术配置，话术分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户级别维护功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户信息的客户级别维护功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户积分功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户积分查询功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务模块发送微信消息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务模块发送微信图文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务模块发送卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户群发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录问题处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据车牌号获取车险到期的时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价功能实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保功能实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品续费、开通权限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开单功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂内翻新功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>波箱相关报表功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件和故障现象登记功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>变速箱注册认证功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDK</t>
+    <t>机器人拨打电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构用户数量申请功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构用户数量限制</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -224,107 +400,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>客户订单管理功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品销售统计功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前设定产品：手机APP，业务财务一体化，EPC云服务，微信车主端，透明车间，云呼叫，AI电话机器人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>产品权限功能开发</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>产品权限根据客户购买的产品判断是否可维护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构用户数量申请功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册认证后，会有一个默认用户数量；使用系统后可以重新申请用户数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构用户数量限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张志安</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊鹰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫敏兰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁龄勃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁升启</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人拨打电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>续租功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户开通功能申请，续费；购买通道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信后台界面开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动派券功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动派券功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统LOGO管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGO，系统名称，主题颜色管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页按品牌分二级域名访问</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形化项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>维保大数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务应用场景</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,22 +571,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,10 +934,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:XDT81"/>
+  <dimension ref="A1:XDT84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -883,15 +975,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>7</v>
+      <c r="A2" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E2" s="6">
         <v>43525</v>
@@ -901,13 +993,13 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="10"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6">
         <v>43525</v>
@@ -917,13 +1009,13 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E4" s="6">
         <v>43528</v>
@@ -933,13 +1025,13 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="10"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E5" s="6">
         <v>43528</v>
@@ -949,15 +1041,15 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
+      <c r="A6" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E6" s="6">
         <v>43530</v>
@@ -967,13 +1059,13 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E7" s="6">
         <v>43531</v>
@@ -983,15 +1075,15 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E8" s="6">
         <v>43532</v>
@@ -1001,13 +1093,13 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="12"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E9" s="6">
         <v>43529</v>
@@ -1017,13 +1109,13 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E10" s="6">
         <v>43530</v>
@@ -1033,15 +1125,15 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E11" s="6">
         <v>43531</v>
@@ -1051,13 +1143,13 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E12" s="6">
         <v>43532</v>
@@ -1067,13 +1159,13 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E13" s="6">
         <v>43532</v>
@@ -1083,15 +1175,15 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>13</v>
+      <c r="A14" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E14" s="6">
         <v>43536</v>
@@ -1101,13 +1193,13 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E15" s="6">
         <v>43537</v>
@@ -1117,13 +1209,13 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6">
         <v>43537</v>
@@ -1133,13 +1225,13 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E17" s="6">
         <v>43539</v>
@@ -1149,13 +1241,13 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E18" s="6">
         <v>43537</v>
@@ -1165,15 +1257,15 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>14</v>
+      <c r="A19" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E19" s="6">
         <v>43528</v>
@@ -1183,13 +1275,13 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="10"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6">
         <v>43529</v>
@@ -1199,13 +1291,13 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="10"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E21" s="6">
         <v>43530</v>
@@ -1215,13 +1307,13 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="13"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E22" s="6">
         <v>43531</v>
@@ -1231,15 +1323,15 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>15</v>
+      <c r="A23" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E23" s="6">
         <v>43528</v>
@@ -1249,13 +1341,13 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="10"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E24" s="6">
         <v>43529</v>
@@ -1265,13 +1357,13 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="10"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="5" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E25" s="6">
         <v>43530</v>
@@ -1281,13 +1373,13 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="10"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E26" s="6">
         <v>43531</v>
@@ -1297,13 +1389,13 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="10"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E27" s="6">
         <v>43532</v>
@@ -1313,13 +1405,13 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="10"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E28" s="6">
         <v>43532</v>
@@ -1329,13 +1421,13 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="10"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E29" s="6">
         <v>43532</v>
@@ -1345,15 +1437,15 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>17</v>
+      <c r="A30" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E30" s="6">
         <v>43525</v>
@@ -1363,13 +1455,13 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="10"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E31" s="6">
         <v>43525</v>
@@ -1379,13 +1471,13 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="10"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E32" s="6">
         <v>43525</v>
@@ -1395,13 +1487,13 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="10"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E33" s="6">
         <v>43525</v>
@@ -1411,13 +1503,13 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="10"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="5" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E34" s="6">
         <v>43525</v>
@@ -1427,13 +1519,13 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="13"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="5" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E35" s="6">
         <v>43554</v>
@@ -1443,15 +1535,15 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>16</v>
+      <c r="A36" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E36" s="6">
         <v>43549</v>
@@ -1461,13 +1553,13 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="10"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E37" s="6">
         <v>43550</v>
@@ -1477,13 +1569,13 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="10"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E38" s="6">
         <v>43551</v>
@@ -1493,13 +1585,13 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="10"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E39" s="6">
         <v>43551</v>
@@ -1509,13 +1601,13 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A40" s="10"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E40" s="6">
         <v>43552</v>
@@ -1525,13 +1617,13 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A41" s="10"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E41" s="6">
         <v>43553</v>
@@ -1541,13 +1633,13 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A42" s="10"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E42" s="6">
         <v>43553</v>
@@ -1557,463 +1649,526 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" s="8" customFormat="1" ht="36">
-      <c r="A43" s="9" t="s">
-        <v>44</v>
+      <c r="A43" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E43" s="6">
         <v>43542</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="11"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="10"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E44" s="6">
         <v>43542</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="11"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="1:8" s="8" customFormat="1" ht="36">
-      <c r="A45" s="10"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="E45" s="6">
         <v>43543</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="11"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E46" s="6">
         <v>43544</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="11"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="10"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E47" s="6">
         <v>43544</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="11"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="10"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="5" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E48" s="6">
         <v>43545</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="11"/>
+      <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A49" s="10"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E49" s="6">
         <v>43546</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="11"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A50" s="12" t="s">
-        <v>73</v>
+      <c r="A50" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E50" s="6">
         <v>43550</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="11"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A51" s="12"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E51" s="6">
         <v>43552</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="11"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="5"/>
+      <c r="A52" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
+      <c r="D52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="6">
+        <v>43549</v>
+      </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="14"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A53" s="10"/>
-      <c r="B53" s="5"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
+      <c r="D53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="6">
+        <v>43550</v>
+      </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="14"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="6">
+        <v>43551</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="14"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
+      <c r="A55" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="6">
+        <v>43535</v>
+      </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="14"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="6">
+        <v>43536</v>
+      </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="14"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A57" s="13"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="6">
+        <v>43537</v>
+      </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="14"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="6">
+        <v>43538</v>
+      </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="14"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="6">
+        <v>43539</v>
+      </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="14"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A60" s="13"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
+      <c r="A60" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="6">
+        <v>43535</v>
+      </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="69" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A69" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="6">
-        <v>43530</v>
-      </c>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E70" s="6">
-        <v>43531</v>
-      </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="6">
-        <v>43532</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="1"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A61" s="14"/>
+      <c r="B61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="6">
+        <v>43539</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A62" s="14"/>
+      <c r="B62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="6">
+        <v>43546</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A63" s="14"/>
+      <c r="B63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="6">
+        <v>43553</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="72" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A72" s="12"/>
+      <c r="A72" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="B72" s="5" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E72" s="6">
-        <v>43529</v>
+        <v>43530</v>
       </c>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A73" s="12"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E73" s="6">
-        <v>43530</v>
+        <v>43531</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A74" s="12"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E74" s="6">
-        <v>43531</v>
+        <v>43532</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A75" s="12"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="5" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E75" s="6">
-        <v>43532</v>
+        <v>43529</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A76" s="12"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E76" s="6">
-        <v>43532</v>
+        <v>43530</v>
       </c>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A77" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="A77" s="14"/>
       <c r="B77" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="D77" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E77" s="6">
-        <v>43536</v>
+        <v>43531</v>
       </c>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A78" s="12"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E78" s="6">
-        <v>43537</v>
+        <v>43532</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A79" s="12"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E79" s="6">
-        <v>43537</v>
+        <v>43532</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A80" s="12"/>
+      <c r="A80" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="B80" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E80" s="6">
-        <v>43539</v>
+        <v>43536</v>
       </c>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A81" s="12"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="5" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E81" s="6">
         <v>43537</v>
@@ -2022,13 +2177,56 @@
       <c r="G81" s="7"/>
       <c r="H81" s="1"/>
     </row>
+    <row r="82" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A82" s="14"/>
+      <c r="B82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="6">
+        <v>43537</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A83" s="14"/>
+      <c r="B83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="6">
+        <v>43539</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A84" s="14"/>
+      <c r="B84" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="6">
+        <v>43537</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A69:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A60"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="H43:H51"/>
     <mergeCell ref="A14:A18"/>
@@ -2039,6 +2237,11 @@
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="A43:A49"/>
     <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A63"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/DOC/开发计划/DMS开发计划-3月.xlsx
+++ b/DOC/开发计划/DMS开发计划-3月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="20730" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="20730" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="3月开发计划" sheetId="12" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3月开发计划'!$A$1:$XDT$63</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -40,371 +40,371 @@
     <t>状态</t>
   </si>
   <si>
+    <t>定时推送维修数据接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台账号配置相关接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云呼叫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI电话机器人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户级别维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信平台、微信营销</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速箱专修模块（系统）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户资料，车辆资料管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料分配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通话记录，话单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码及网关的购买，网关配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫功能实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫任务管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沟通结果的管理（意向管理，黑名单管理）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人的服务申请，续费；购买通道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>话术的购买，配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨打结果的统计</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>话术配置，话术分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户级别维护功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户积分功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户积分查询功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务模块发送微信消息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务模块发送微信图文</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务模块发送卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户群发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录问题处理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据车牌号获取车险到期的时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价功能实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保功能实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开单功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂内翻新功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件和故障现象登记功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口输出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户订单管理功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品销售统计功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前设定产品：手机APP，业务财务一体化，EPC云服务，微信车主端，透明车间，云呼叫，AI电话机器人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品权限根据客户购买的产品判断是否可维护</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册认证后，会有一个默认用户数量；使用系统后可以重新申请用户数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张志安</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊鹰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁升启</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人拨打电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户开通功能申请，续费；购买通道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信后台界面开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动派券功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动派券功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实施</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGO，系统名称，主题颜色管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页按品牌分二级域名访问</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D模型界面添加到车道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D模型接口与维保项目组对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D模型中配件选择后添加到对应项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准项目分类接口对接维保大数据接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>热词接口对接维保大数据接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准套餐接口对接维保大数据接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准项目接口对接维保大数据接口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维保大数据其它相关接口对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置中心搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册中心搭建</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件库存接口尝试微服务化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户开通功能申请，续费；购买通道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码及网关的购买，网关配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼叫功能实现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户信息的客户级别维护功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>波箱相关报表功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变速箱注册认证功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI电话机器人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维保大数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品续费、开通权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务应用场景</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>车险报价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统LOGO管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形化项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人的服务申请，续费；购买通道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>话术的购买，配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人拨打电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构用户数量申请功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构用户数量限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台产品定义功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品权限功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>续租功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>各省市地区电子档案对接上传</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>登录接口测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>定时推送维修数据接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>查询需要推送电子档案的公司结算单数据接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台账号配置相关接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>云呼叫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI电话机器人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户级别维护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信平台、微信营销</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>变速箱专修模块（系统）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户资料，车辆资料管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料分配</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通话记录，话单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码及网关的购买，网关配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫功能实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫任务管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>沟通结果的管理（意向管理，黑名单管理）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人的服务申请，续费；购买通道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>话术的购买，配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨打结果的统计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>话术配置，话术分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户级别维护功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户积分功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户积分查询功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务模块发送微信消息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务模块发送微信图文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务模块发送卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户群发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录问题处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据车牌号获取车险到期的时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价功能实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>投保功能实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>开单功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>厂内翻新功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件和故障现象登记功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户订单管理功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品销售统计功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前设定产品：手机APP，业务财务一体化，EPC云服务，微信车主端，透明车间，云呼叫，AI电话机器人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品权限根据客户购买的产品判断是否可维护</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册认证后，会有一个默认用户数量；使用系统后可以重新申请用户数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张志安</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊鹰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫敏兰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁龄勃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁升启</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人拨打电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户开通功能申请，续费；购买通道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信后台界面开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动派券功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动派券功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实施</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGO，系统名称，主题颜色管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页按品牌分二级域名访问</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁龄勃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>各省市地区电子档案对接上传</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D模型界面添加到车道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D模型接口与维保项目组对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D模型中配件选择后添加到对应项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准项目分类接口对接维保大数据接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>热词接口对接维保大数据接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准套餐接口对接维保大数据接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准项目接口对接维保大数据接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>维保大数据其它相关接口对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置中心搭建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册中心搭建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件库存接口尝试微服务化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户开通功能申请，续费；购买通道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>号码及网关的购买，网关配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼叫功能实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户信息的客户级别维护功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>波箱相关报表功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>变速箱注册认证功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI电话机器人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>维保大数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品续费、开通权限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务应用场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>车险报价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统LOGO管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形化项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人的服务申请，续费；购买通道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>话术的购买，配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人拨打电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构用户数量申请功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构用户数量限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台产品定义功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品权限功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>续租功能开发</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -936,8 +936,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -976,14 +976,14 @@
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6">
         <v>43525</v>
@@ -995,11 +995,11 @@
     <row r="3" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="6">
         <v>43525</v>
@@ -1011,11 +1011,11 @@
     <row r="4" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6">
         <v>43528</v>
@@ -1027,11 +1027,11 @@
     <row r="5" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5" s="6">
         <v>43528</v>
@@ -1042,14 +1042,14 @@
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="6">
         <v>43530</v>
@@ -1061,11 +1061,11 @@
     <row r="7" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="14"/>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="6">
         <v>43531</v>
@@ -1077,13 +1077,13 @@
     <row r="8" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="14"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="6">
         <v>43532</v>
@@ -1095,11 +1095,11 @@
     <row r="9" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="14"/>
       <c r="B9" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="6">
         <v>43529</v>
@@ -1111,11 +1111,11 @@
     <row r="10" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="14"/>
       <c r="B10" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="6">
         <v>43530</v>
@@ -1127,13 +1127,13 @@
     <row r="11" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="14"/>
       <c r="B11" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="6">
         <v>43531</v>
@@ -1145,11 +1145,11 @@
     <row r="12" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="14"/>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="6">
         <v>43532</v>
@@ -1161,11 +1161,11 @@
     <row r="13" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="6">
         <v>43532</v>
@@ -1176,14 +1176,14 @@
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="6">
         <v>43536</v>
@@ -1195,11 +1195,11 @@
     <row r="15" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="14"/>
       <c r="B15" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E15" s="6">
         <v>43537</v>
@@ -1211,11 +1211,11 @@
     <row r="16" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="6">
         <v>43537</v>
@@ -1227,11 +1227,11 @@
     <row r="17" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="14"/>
       <c r="B17" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="6">
         <v>43539</v>
@@ -1243,11 +1243,11 @@
     <row r="18" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="6">
         <v>43537</v>
@@ -1258,14 +1258,14 @@
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" s="6">
         <v>43528</v>
@@ -1277,11 +1277,11 @@
     <row r="20" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E20" s="6">
         <v>43529</v>
@@ -1293,11 +1293,11 @@
     <row r="21" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" s="6">
         <v>43530</v>
@@ -1309,11 +1309,11 @@
     <row r="22" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="6">
         <v>43531</v>
@@ -1324,14 +1324,14 @@
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" s="6">
         <v>43528</v>
@@ -1343,11 +1343,11 @@
     <row r="24" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="6">
         <v>43529</v>
@@ -1359,11 +1359,11 @@
     <row r="25" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="6">
         <v>43530</v>
@@ -1375,11 +1375,11 @@
     <row r="26" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E26" s="6">
         <v>43531</v>
@@ -1391,11 +1391,11 @@
     <row r="27" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E27" s="6">
         <v>43532</v>
@@ -1407,11 +1407,11 @@
     <row r="28" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E28" s="6">
         <v>43532</v>
@@ -1423,11 +1423,11 @@
     <row r="29" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="6">
         <v>43532</v>
@@ -1438,14 +1438,14 @@
     </row>
     <row r="30" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="6">
         <v>43525</v>
@@ -1457,11 +1457,11 @@
     <row r="31" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E31" s="6">
         <v>43525</v>
@@ -1473,11 +1473,11 @@
     <row r="32" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="6">
         <v>43525</v>
@@ -1489,11 +1489,11 @@
     <row r="33" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E33" s="6">
         <v>43525</v>
@@ -1505,11 +1505,11 @@
     <row r="34" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E34" s="6">
         <v>43525</v>
@@ -1521,11 +1521,11 @@
     <row r="35" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E35" s="6">
         <v>43554</v>
@@ -1536,14 +1536,14 @@
     </row>
     <row r="36" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A36" s="15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E36" s="6">
         <v>43549</v>
@@ -1555,11 +1555,11 @@
     <row r="37" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="6">
         <v>43550</v>
@@ -1571,11 +1571,11 @@
     <row r="38" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E38" s="6">
         <v>43551</v>
@@ -1587,11 +1587,11 @@
     <row r="39" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E39" s="6">
         <v>43551</v>
@@ -1603,11 +1603,11 @@
     <row r="40" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E40" s="6">
         <v>43552</v>
@@ -1619,11 +1619,11 @@
     <row r="41" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="6">
         <v>43553</v>
@@ -1635,11 +1635,11 @@
     <row r="42" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E42" s="6">
         <v>43553</v>
@@ -1650,16 +1650,16 @@
     </row>
     <row r="43" spans="1:8" s="8" customFormat="1" ht="36">
       <c r="A43" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E43" s="6">
         <v>43542</v>
@@ -1671,11 +1671,11 @@
     <row r="44" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E44" s="6">
         <v>43542</v>
@@ -1687,13 +1687,13 @@
     <row r="45" spans="1:8" s="8" customFormat="1" ht="36">
       <c r="A45" s="16"/>
       <c r="B45" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E45" s="6">
         <v>43543</v>
@@ -1705,11 +1705,11 @@
     <row r="46" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" s="6">
         <v>43544</v>
@@ -1721,11 +1721,11 @@
     <row r="47" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E47" s="6">
         <v>43544</v>
@@ -1737,13 +1737,13 @@
     <row r="48" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A48" s="16"/>
       <c r="B48" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E48" s="6">
         <v>43545</v>
@@ -1755,11 +1755,11 @@
     <row r="49" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E49" s="6">
         <v>43546</v>
@@ -1770,14 +1770,14 @@
     </row>
     <row r="50" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A50" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E50" s="6">
         <v>43550</v>
@@ -1789,11 +1789,11 @@
     <row r="51" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A51" s="14"/>
       <c r="B51" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E51" s="6">
         <v>43552</v>
@@ -1804,14 +1804,14 @@
     </row>
     <row r="52" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A52" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E52" s="6">
         <v>43549</v>
@@ -1823,11 +1823,11 @@
     <row r="53" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E53" s="6">
         <v>43550</v>
@@ -1839,11 +1839,11 @@
     <row r="54" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A54" s="17"/>
       <c r="B54" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E54" s="6">
         <v>43551</v>
@@ -1854,14 +1854,14 @@
     </row>
     <row r="55" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A55" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E55" s="6">
         <v>43535</v>
@@ -1873,11 +1873,11 @@
     <row r="56" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E56" s="6">
         <v>43536</v>
@@ -1889,11 +1889,11 @@
     <row r="57" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E57" s="6">
         <v>43537</v>
@@ -1905,11 +1905,11 @@
     <row r="58" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E58" s="6">
         <v>43538</v>
@@ -1921,11 +1921,11 @@
     <row r="59" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E59" s="6">
         <v>43539</v>
@@ -1936,14 +1936,14 @@
     </row>
     <row r="60" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A60" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E60" s="6">
         <v>43535</v>
@@ -1955,11 +1955,11 @@
     <row r="61" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A61" s="14"/>
       <c r="B61" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E61" s="6">
         <v>43539</v>
@@ -1971,11 +1971,11 @@
     <row r="62" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A62" s="14"/>
       <c r="B62" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E62" s="6">
         <v>43546</v>
@@ -1987,11 +1987,11 @@
     <row r="63" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A63" s="14"/>
       <c r="B63" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E63" s="6">
         <v>43553</v>
@@ -2011,14 +2011,14 @@
     </row>
     <row r="72" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E72" s="6">
         <v>43530</v>
@@ -2030,11 +2030,11 @@
     <row r="73" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A73" s="14"/>
       <c r="B73" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E73" s="6">
         <v>43531</v>
@@ -2046,13 +2046,13 @@
     <row r="74" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A74" s="14"/>
       <c r="B74" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E74" s="6">
         <v>43532</v>
@@ -2064,11 +2064,11 @@
     <row r="75" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A75" s="14"/>
       <c r="B75" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E75" s="6">
         <v>43529</v>
@@ -2080,11 +2080,11 @@
     <row r="76" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A76" s="14"/>
       <c r="B76" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E76" s="6">
         <v>43530</v>
@@ -2096,13 +2096,13 @@
     <row r="77" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A77" s="14"/>
       <c r="B77" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E77" s="6">
         <v>43531</v>
@@ -2114,11 +2114,11 @@
     <row r="78" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A78" s="14"/>
       <c r="B78" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E78" s="6">
         <v>43532</v>
@@ -2130,11 +2130,11 @@
     <row r="79" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A79" s="14"/>
       <c r="B79" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E79" s="6">
         <v>43532</v>
@@ -2145,14 +2145,14 @@
     </row>
     <row r="80" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A80" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E80" s="6">
         <v>43536</v>
@@ -2164,11 +2164,11 @@
     <row r="81" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A81" s="14"/>
       <c r="B81" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E81" s="6">
         <v>43537</v>
@@ -2180,11 +2180,11 @@
     <row r="82" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A82" s="14"/>
       <c r="B82" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E82" s="6">
         <v>43537</v>
@@ -2196,11 +2196,11 @@
     <row r="83" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A83" s="14"/>
       <c r="B83" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E83" s="6">
         <v>43539</v>
@@ -2212,11 +2212,11 @@
     <row r="84" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
       <c r="A84" s="14"/>
       <c r="B84" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E84" s="6">
         <v>43537</v>

--- a/DOC/开发计划/DMS开发计划-3月.xlsx
+++ b/DOC/开发计划/DMS开发计划-3月.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>功能模块</t>
   </si>
@@ -336,75 +336,79 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>维保大数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品续费、开通权限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微服务应用场景</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>车险报价</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统LOGO管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形化项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人的服务申请，续费；购买通道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>话术的购买，配置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人拨打电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构用户数量申请功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构用户数量限制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台产品定义功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品权限功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>续租功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>各省市地区电子档案对接上传</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录接口测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询需要推送电子档案的公司结算单数据接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>云呼叫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>AI电话机器人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>维保大数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品续费、开通权限</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微服务应用场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>车险报价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统LOGO管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形化项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人的服务申请，续费；购买通道</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>话术的购买，配置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人拨打电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构用户数量申请功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构用户数量限制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台产品定义功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品权限功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>续租功能开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>各省市地区电子档案对接上传</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录接口测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询需要推送电子档案的公司结算单数据接口开发</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +450,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Microsoft YaHei Light"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -543,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,20 +603,32 @@
     <xf numFmtId="58" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,8 +965,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:XDT84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -975,8 +1004,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>96</v>
+      <c r="A2" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
@@ -993,9 +1022,9 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
@@ -1009,9 +1038,9 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1025,7 +1054,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1041,223 +1070,223 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="21">
         <v>43530</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="21">
         <v>43531</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="21">
         <v>43532</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="21">
         <v>43529</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="21">
         <v>43530</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="21">
         <v>43531</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="21">
         <v>43532</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="21">
         <v>43532</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="21">
+        <v>43536</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="21">
+        <v>43537</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="21">
+        <v>43537</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="21">
+        <v>43539</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="6">
-        <v>43536</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="E18" s="21">
         <v>43537</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="6">
-        <v>43537</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="6">
-        <v>43539</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="6">
-        <v>43537</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1275,7 +1304,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="5" t="s">
         <v>78</v>
       </c>
@@ -1291,7 +1320,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
@@ -1307,7 +1336,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1323,7 +1352,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1341,7 +1370,7 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="16"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
@@ -1357,7 +1386,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="5" t="s">
         <v>57</v>
       </c>
@@ -1373,7 +1402,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="16"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
@@ -1389,7 +1418,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="14"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="5" t="s">
         <v>28</v>
       </c>
@@ -1405,7 +1434,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="14"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
@@ -1421,7 +1450,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="14"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
@@ -1437,7 +1466,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1455,7 +1484,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
@@ -1471,7 +1500,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
@@ -1487,7 +1516,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="5" t="s">
         <v>79</v>
       </c>
@@ -1503,7 +1532,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="5" t="s">
         <v>80</v>
       </c>
@@ -1519,7 +1548,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="5" t="s">
         <v>59</v>
       </c>
@@ -1535,8 +1564,8 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="15" t="s">
-        <v>85</v>
+      <c r="A36" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>32</v>
@@ -1553,7 +1582,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="5" t="s">
         <v>33</v>
       </c>
@@ -1569,7 +1598,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="5" t="s">
         <v>34</v>
       </c>
@@ -1585,7 +1614,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="5" t="s">
         <v>35</v>
       </c>
@@ -1601,7 +1630,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="5" t="s">
         <v>36</v>
       </c>
@@ -1617,7 +1646,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A41" s="16"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="5" t="s">
         <v>37</v>
       </c>
@@ -1633,7 +1662,7 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A42" s="16"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="5" t="s">
         <v>38</v>
       </c>
@@ -1649,11 +1678,11 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" s="8" customFormat="1" ht="36">
-      <c r="A43" s="15" t="s">
-        <v>83</v>
+      <c r="A43" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>48</v>
@@ -1666,12 +1695,12 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5" t="s">
@@ -1682,12 +1711,12 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="18"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" s="8" customFormat="1" ht="36">
-      <c r="A45" s="16"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>46</v>
@@ -1700,10 +1729,10 @@
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="18"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="16"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="5" t="s">
         <v>44</v>
       </c>
@@ -1716,10 +1745,10 @@
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="18"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
@@ -1732,12 +1761,12 @@
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="18"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>47</v>
@@ -1750,12 +1779,12 @@
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="18"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A49" s="16"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5" t="s">
@@ -1766,11 +1795,11 @@
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="18"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A50" s="14" t="s">
-        <v>86</v>
+      <c r="A50" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>60</v>
@@ -1784,10 +1813,10 @@
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="18"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A51" s="14"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="5" t="s">
         <v>61</v>
       </c>
@@ -1800,11 +1829,11 @@
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="18"/>
+      <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A52" s="15" t="s">
-        <v>87</v>
+      <c r="A52" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>63</v>
@@ -1821,7 +1850,7 @@
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A53" s="16"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="5" t="s">
         <v>64</v>
       </c>
@@ -1837,7 +1866,7 @@
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A54" s="17"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="5" t="s">
         <v>65</v>
       </c>
@@ -1853,8 +1882,8 @@
       <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A55" s="15" t="s">
-        <v>82</v>
+      <c r="A55" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>66</v>
@@ -1871,7 +1900,7 @@
       <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A56" s="16"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="5" t="s">
         <v>67</v>
       </c>
@@ -1887,7 +1916,7 @@
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A57" s="16"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="5" t="s">
         <v>68</v>
       </c>
@@ -1903,7 +1932,7 @@
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A58" s="16"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="5" t="s">
         <v>69</v>
       </c>
@@ -1919,7 +1948,7 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A59" s="16"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="5" t="s">
         <v>70</v>
       </c>
@@ -1935,8 +1964,8 @@
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A60" s="14" t="s">
-        <v>84</v>
+      <c r="A60" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>71</v>
@@ -1953,7 +1982,7 @@
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A61" s="14"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="5" t="s">
         <v>72</v>
       </c>
@@ -1969,7 +1998,7 @@
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A62" s="14"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="5" t="s">
         <v>73</v>
       </c>
@@ -1985,7 +2014,7 @@
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A63" s="14"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="5" t="s">
         <v>74</v>
       </c>
@@ -2010,7 +2039,7 @@
       <c r="G64" s="10"/>
     </row>
     <row r="72" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -2028,7 +2057,7 @@
       <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A73" s="14"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="5" t="s">
         <v>15</v>
       </c>
@@ -2044,7 +2073,7 @@
       <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A74" s="14"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="5" t="s">
         <v>16</v>
       </c>
@@ -2062,7 +2091,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A75" s="14"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="5" t="s">
         <v>55</v>
       </c>
@@ -2078,7 +2107,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A76" s="14"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="5" t="s">
         <v>17</v>
       </c>
@@ -2094,7 +2123,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A77" s="14"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="5" t="s">
         <v>18</v>
       </c>
@@ -2112,7 +2141,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A78" s="14"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="5" t="s">
         <v>19</v>
       </c>
@@ -2128,7 +2157,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A79" s="14"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="5" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2173,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -2162,7 +2191,7 @@
       <c r="H80" s="1"/>
     </row>
     <row r="81" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A81" s="14"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="5" t="s">
         <v>22</v>
       </c>
@@ -2178,7 +2207,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A82" s="14"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="5" t="s">
         <v>23</v>
       </c>
@@ -2194,7 +2223,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A83" s="14"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="5" t="s">
         <v>24</v>
       </c>
@@ -2210,7 +2239,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="1:8" s="8" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A84" s="14"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="5" t="s">
         <v>54</v>
       </c>
@@ -2227,6 +2256,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="A80:A84"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A63"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="H43:H51"/>
     <mergeCell ref="A14:A18"/>
@@ -2237,11 +2271,6 @@
     <mergeCell ref="A36:A42"/>
     <mergeCell ref="A43:A49"/>
     <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A72:A79"/>
-    <mergeCell ref="A80:A84"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A63"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
